--- a/Kenya Results/Underfive Results.xlsx
+++ b/Kenya Results/Underfive Results.xlsx
@@ -8,15 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GIT\Multidimensional-Concepts\Kenya Results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF518AF9-2E55-4611-9BF3-C0E6AE81C61D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F5124C-5849-4A9F-804F-989B67553AB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="16663" windowHeight="8863" xr2:uid="{2CCB9BAF-400B-4869-A0BF-54D07DB3552D}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{2CCB9BAF-400B-4869-A0BF-54D07DB3552D}"/>
   </bookViews>
   <sheets>
     <sheet name="U5_Indicators" sheetId="1" r:id="rId1"/>
     <sheet name="U5_Main results " sheetId="2" r:id="rId2"/>
     <sheet name="U5_Contri" sheetId="3" r:id="rId3"/>
     <sheet name="U5_contribution" sheetId="4" r:id="rId4"/>
+    <sheet name="Geography" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="107" uniqueCount="82">
   <si>
     <t xml:space="preserve">stunting        </t>
   </si>
@@ -104,15 +105,6 @@
     <t>[95% conf. interval]</t>
   </si>
   <si>
-    <t>0.668       0.682</t>
-  </si>
-  <si>
-    <t>0.367       0.376</t>
-  </si>
-  <si>
-    <t>0.547       0.553</t>
-  </si>
-  <si>
     <t>Headcount (H)</t>
   </si>
   <si>
@@ -135,6 +127,165 @@
   </si>
   <si>
     <t xml:space="preserve">Table 4: Contribution of each dimension to multidimensional Poverty </t>
+  </si>
+  <si>
+    <t>Geography</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Poverty Incidence </t>
+  </si>
+  <si>
+    <t>rural</t>
+  </si>
+  <si>
+    <t>urban</t>
+  </si>
+  <si>
+    <t>County</t>
+  </si>
+  <si>
+    <t>mombasa</t>
+  </si>
+  <si>
+    <t>kwale</t>
+  </si>
+  <si>
+    <t>kilifi</t>
+  </si>
+  <si>
+    <t>tana river</t>
+  </si>
+  <si>
+    <t>lamu</t>
+  </si>
+  <si>
+    <t>taita taveta</t>
+  </si>
+  <si>
+    <t>garissa</t>
+  </si>
+  <si>
+    <t>wajir</t>
+  </si>
+  <si>
+    <t>mandera</t>
+  </si>
+  <si>
+    <t>marsabit</t>
+  </si>
+  <si>
+    <t>isiolo</t>
+  </si>
+  <si>
+    <t>meru</t>
+  </si>
+  <si>
+    <t>tharaka-nithi</t>
+  </si>
+  <si>
+    <t>embu</t>
+  </si>
+  <si>
+    <t>kitui</t>
+  </si>
+  <si>
+    <t>machakos</t>
+  </si>
+  <si>
+    <t>makueni</t>
+  </si>
+  <si>
+    <t>nyandarua</t>
+  </si>
+  <si>
+    <t>nyeri</t>
+  </si>
+  <si>
+    <t>kirinyaga</t>
+  </si>
+  <si>
+    <t>murang'a</t>
+  </si>
+  <si>
+    <t>kiambu</t>
+  </si>
+  <si>
+    <t>turkana</t>
+  </si>
+  <si>
+    <t>west pokot</t>
+  </si>
+  <si>
+    <t>samburu</t>
+  </si>
+  <si>
+    <t>trans nzoia</t>
+  </si>
+  <si>
+    <t>uasin gishu</t>
+  </si>
+  <si>
+    <t>elgeyo-marakwet</t>
+  </si>
+  <si>
+    <t>nandi</t>
+  </si>
+  <si>
+    <t>baringo</t>
+  </si>
+  <si>
+    <t>laikipia</t>
+  </si>
+  <si>
+    <t>nakuru</t>
+  </si>
+  <si>
+    <t>narok</t>
+  </si>
+  <si>
+    <t>kajiado</t>
+  </si>
+  <si>
+    <t>kericho</t>
+  </si>
+  <si>
+    <t>bomet</t>
+  </si>
+  <si>
+    <t>kakamega</t>
+  </si>
+  <si>
+    <t>vihiga</t>
+  </si>
+  <si>
+    <t>bungoma</t>
+  </si>
+  <si>
+    <t>busia</t>
+  </si>
+  <si>
+    <t>siaya</t>
+  </si>
+  <si>
+    <t>kisumu</t>
+  </si>
+  <si>
+    <t>homa bay</t>
+  </si>
+  <si>
+    <t>migori</t>
+  </si>
+  <si>
+    <t>kisii</t>
+  </si>
+  <si>
+    <t>nyamira</t>
+  </si>
+  <si>
+    <t>nairobi</t>
+  </si>
+  <si>
+    <t>Total</t>
   </si>
 </sst>
 </file>
@@ -232,13 +383,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -576,7 +727,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -588,7 +739,7 @@
   <sheetData>
     <row r="1" spans="1:4" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -702,7 +853,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -715,7 +866,7 @@
   <sheetData>
     <row r="1" spans="1:9" ht="18.45" x14ac:dyDescent="0.5">
       <c r="A1" s="16" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B1" s="16"/>
       <c r="C1" s="16"/>
@@ -729,14 +880,14 @@
       <c r="C2" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="17" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="15"/>
+      <c r="E2" s="17"/>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B3" s="14">
         <v>0.67500000000000004</v>
@@ -744,14 +895,17 @@
       <c r="C3" s="14">
         <v>4.0000000000000001E-3</v>
       </c>
-      <c r="D3" s="14" t="s">
-        <v>21</v>
+      <c r="D3" s="14">
+        <v>0.66800000000000004</v>
+      </c>
+      <c r="E3">
+        <v>0.68200000000000005</v>
       </c>
       <c r="I3" s="14"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B4" s="14">
         <v>0.372</v>
@@ -759,13 +913,16 @@
       <c r="C4" s="14">
         <v>2E-3</v>
       </c>
-      <c r="D4" s="14" t="s">
-        <v>22</v>
+      <c r="D4" s="14">
+        <v>0.36699999999999999</v>
+      </c>
+      <c r="E4">
+        <v>0.376</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A5" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B5" s="14">
         <v>0.55000000000000004</v>
@@ -773,13 +930,16 @@
       <c r="C5" s="14">
         <v>2E-3</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>23</v>
+      <c r="D5" s="14">
+        <v>0.54700000000000004</v>
+      </c>
+      <c r="E5">
+        <v>0.55300000000000005</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.4">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>17</v>
@@ -799,7 +959,7 @@
   <dimension ref="A1:F11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:E1"/>
+      <selection activeCell="A2" sqref="A2:C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -810,14 +970,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
-      <c r="F1" s="17"/>
+      <c r="A1" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -930,7 +1090,7 @@
   <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
@@ -940,13 +1100,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="18.45" x14ac:dyDescent="0.5">
-      <c r="A1" s="17" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="17"/>
-      <c r="C1" s="17"/>
-      <c r="D1" s="17"/>
-      <c r="E1" s="17"/>
+      <c r="A1" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" t="s">
@@ -1013,4 +1173,435 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CBF0271B-6FFE-4D7E-B714-5CB0D83359F2}">
+  <dimension ref="A1:B53"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.6" x14ac:dyDescent="0.4"/>
+  <cols>
+    <col min="1" max="1" width="12.765625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A2" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2">
+        <v>79.84</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3">
+        <v>42.19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A6" t="s">
+        <v>34</v>
+      </c>
+      <c r="B6">
+        <v>55.81</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B7">
+        <v>78.89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A8" t="s">
+        <v>36</v>
+      </c>
+      <c r="B8">
+        <v>75.14</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A9" t="s">
+        <v>37</v>
+      </c>
+      <c r="B9">
+        <v>91.2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A10" t="s">
+        <v>38</v>
+      </c>
+      <c r="B10">
+        <v>70.900000000000006</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A11" t="s">
+        <v>39</v>
+      </c>
+      <c r="B11">
+        <v>46.88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A12" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12">
+        <v>75.3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B13">
+        <v>81.55</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B14">
+        <v>89.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A15" t="s">
+        <v>43</v>
+      </c>
+      <c r="B15">
+        <v>84.33</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16">
+        <v>73.430000000000007</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A17" t="s">
+        <v>45</v>
+      </c>
+      <c r="B17">
+        <v>61.57</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A18" t="s">
+        <v>46</v>
+      </c>
+      <c r="B18">
+        <v>56.39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A19" t="s">
+        <v>47</v>
+      </c>
+      <c r="B19">
+        <v>48.46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A20" t="s">
+        <v>48</v>
+      </c>
+      <c r="B20">
+        <v>74.92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A21" t="s">
+        <v>49</v>
+      </c>
+      <c r="B21">
+        <v>32.92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A22" t="s">
+        <v>50</v>
+      </c>
+      <c r="B22">
+        <v>63.25</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A23" t="s">
+        <v>51</v>
+      </c>
+      <c r="B23">
+        <v>42.91</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24">
+        <v>43.59</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25">
+        <v>31.28</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26">
+        <v>42.6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27">
+        <v>27.72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A28" t="s">
+        <v>56</v>
+      </c>
+      <c r="B28">
+        <v>91.88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A29" t="s">
+        <v>57</v>
+      </c>
+      <c r="B29">
+        <v>87.41</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A30" t="s">
+        <v>58</v>
+      </c>
+      <c r="B30">
+        <v>80.709999999999994</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A31" t="s">
+        <v>59</v>
+      </c>
+      <c r="B31">
+        <v>54.86</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A32" t="s">
+        <v>60</v>
+      </c>
+      <c r="B32">
+        <v>51.18</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A33" t="s">
+        <v>61</v>
+      </c>
+      <c r="B33">
+        <v>70.87</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A34" t="s">
+        <v>62</v>
+      </c>
+      <c r="B34">
+        <v>66.67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A35" t="s">
+        <v>63</v>
+      </c>
+      <c r="B35">
+        <v>71.47</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A36" t="s">
+        <v>64</v>
+      </c>
+      <c r="B36">
+        <v>55.79</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A37" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37">
+        <v>53.16</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A38" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38">
+        <v>74.290000000000006</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A39" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39">
+        <v>56.94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A40" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40">
+        <v>62.32</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A41" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41">
+        <v>59.18</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A42" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42">
+        <v>66.760000000000005</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A43" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43">
+        <v>62.59</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A44" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44">
+        <v>65.89</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A45" t="s">
+        <v>73</v>
+      </c>
+      <c r="B45">
+        <v>70.319999999999993</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A46" t="s">
+        <v>74</v>
+      </c>
+      <c r="B46">
+        <v>71.010000000000005</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A47" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47">
+        <v>56.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A48" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48">
+        <v>71.2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A49" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49">
+        <v>75.23</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A50" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50">
+        <v>74.83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A51" t="s">
+        <v>79</v>
+      </c>
+      <c r="B51">
+        <v>72.290000000000006</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A52" t="s">
+        <v>80</v>
+      </c>
+      <c r="B52">
+        <v>20.23</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.4">
+      <c r="A53" t="s">
+        <v>81</v>
+      </c>
+      <c r="B53">
+        <v>67.540000000000006</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>